--- a/assets/sp_cetesb_infoaguas/excel/BFAR02250.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/BFAR02250.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,18 +506,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>150.00000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -532,22 +532,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>150.00000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -562,18 +558,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -614,18 +614,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.96000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -640,18 +640,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.96000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -666,18 +666,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.20000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -722,18 +722,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -748,22 +752,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -778,18 +778,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>29.00000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -804,13 +804,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>106.00000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -830,7 +834,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -840,7 +844,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -860,22 +864,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>27.20000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -890,13 +890,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.24000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -916,22 +920,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>40417.00000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -946,18 +946,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40417.00000000</t>
+          <t>6.33000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -972,13 +972,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.33000000</t>
+          <t>113.00000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -998,18 +998,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>113.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1024,18 +1024,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>8.24000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1050,18 +1050,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1076,18 +1076,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10.77000000</t>
+          <t>5.35000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1102,18 +1102,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.35000000</t>
+          <t>106.00000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1128,18 +1128,18 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>10.77000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1154,18 +1154,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>1.87000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1180,13 +1180,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.23000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1206,18 +1210,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1232,18 +1240,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17.99000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1266,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.43700000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1288,18 +1292,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>131.00000000</t>
+          <t>26.00000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1314,18 +1318,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8.80000000</t>
+          <t>200.00000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1340,18 +1344,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>110.00000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1370,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.27000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1396,18 +1396,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>110.00000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1422,13 +1422,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.43700000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1448,13 +1448,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.27000000</t>
+          <t>17.99000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1474,18 +1474,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12.42000000</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1500,18 +1500,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>42239.00000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -1526,18 +1526,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>42239.00000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1552,13 +1552,13 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.50000000</t>
+          <t>131.00000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1578,18 +1578,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1604,18 +1604,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1630,18 +1630,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.87000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1660,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>6.50000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1686,13 +1686,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>12.42000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1712,18 +1712,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>18.71000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1738,18 +1738,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>200.00000000</t>
+          <t>0.23000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1764,18 +1764,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>18.71000000</t>
+          <t>8.80000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1790,18 +1790,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1816,18 +1816,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>26.00000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1842,17 +1842,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1872,18 +1868,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1898,18 +1894,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.88000000</t>
+          <t>37.00000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1924,13 +1920,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12.26000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1976,18 +1976,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>92.22000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2002,18 +2006,18 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>178.00000000</t>
+          <t>1.88000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2032,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2038,12 +2042,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2058,18 +2062,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Saxitoxina</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2084,13 +2092,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>13.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2110,18 +2122,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>904229.00000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -2136,18 +2148,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>904229.00000000</t>
+          <t>10.05000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2162,18 +2174,18 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>13.00000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2188,18 +2200,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10.05000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2214,22 +2226,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Saxitoxina</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2244,18 +2252,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Microcistinas</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.42000000</t>
+          <t>12.26000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2270,18 +2278,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2304,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>29.20000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2326,18 +2330,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Microcistinas</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>3.42000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2352,18 +2356,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>178.00000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2378,18 +2382,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15.65000000</t>
+          <t>92.22000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2404,18 +2408,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29.20000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2430,18 +2434,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>37.00000000</t>
+          <t>45.00000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2456,22 +2460,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>120.00000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2486,18 +2486,18 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>45.00000000</t>
+          <t>15.65000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2512,18 +2512,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>120.00000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2538,18 +2538,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2564,18 +2568,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14.30000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2590,18 +2594,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>72762.00000000</t>
+          <t>23.79000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2616,18 +2620,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Microcistinas</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>4.60000000</t>
+          <t>0.17000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2642,18 +2646,18 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.22000000</t>
+          <t>4.60000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2668,18 +2672,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23.79000000</t>
+          <t>28.70000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2694,18 +2698,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>28.70000000</t>
+          <t>171.00000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2720,18 +2724,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9.08000000</t>
+          <t>9.20000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2750,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2772,18 +2780,18 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2798,13 +2806,13 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>6.40000000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2824,18 +2832,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>9.20000000</t>
+          <t>6.40000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2858,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2880,18 +2884,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>72762.00000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -2932,18 +2936,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>14.30000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2958,13 +2962,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>9.08000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -2984,13 +2988,13 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>10.40000000</t>
+          <t>0.34600000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3010,13 +3014,13 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.34600000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3036,13 +3040,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3062,18 +3070,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Microcistinas</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.17000000</t>
+          <t>11.00000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3114,17 +3122,13 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3144,22 +3148,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>2.22000000</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3174,18 +3174,18 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>11.00000000</t>
+          <t>10.40000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3200,18 +3200,18 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3226,18 +3226,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>171.00000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3252,13 +3252,13 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>105.00000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3278,18 +3278,18 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3304,18 +3304,18 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>71.00000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3330,18 +3330,18 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>15.00000000</t>
+          <t>10.90000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3356,13 +3356,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>147.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3382,18 +3386,18 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10.90000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3408,18 +3412,18 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>29.70000000</t>
+          <t>15.30000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3434,22 +3438,18 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>164.00000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -3464,18 +3464,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>8.34000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3490,18 +3490,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>6.10000000</t>
+          <t>4.05000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3516,18 +3516,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>131856.00000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -3542,13 +3542,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>15.30000000</t>
+          <t>147.00000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3568,18 +3568,18 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>21.83000000</t>
+          <t>6.10000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3594,18 +3594,18 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -3620,18 +3620,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>164.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3646,18 +3650,18 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>29.70000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3672,18 +3676,18 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>71.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3698,13 +3702,13 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.05000000</t>
+          <t>21.83000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3724,18 +3728,18 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3754,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Microcistinas</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3760,12 +3764,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.15000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3784,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Microcistinas</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3790,12 +3794,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.15000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3810,13 +3814,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>8.34000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3836,18 +3840,18 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>15.00000000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -3862,22 +3866,18 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3892,18 +3892,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>131856.00000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3948,13 +3948,13 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>105.00000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -3974,18 +3974,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Incolor</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4000,18 +4004,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>28.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4026,18 +4034,18 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>10.16000000</t>
+          <t>5.00000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4052,18 +4060,18 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.15000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4078,18 +4086,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Microcistinas</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4112,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4114,7 +4122,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4134,18 +4142,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4.90000000</t>
+          <t>9.06000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4160,18 +4168,18 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4186,18 +4194,18 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>5.00000000</t>
+          <t>1600.00000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -4212,18 +4220,18 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Número de Células de Cianobactérias</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>80339.00000000</t>
+          <t>13.22000000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>N. Células/mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4238,13 +4246,13 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Saxitoxina</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.03000000</t>
+          <t>2.57000000</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4264,18 +4272,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Número de Células de Cianobactérias</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>13.22000000</t>
+          <t>80339.00000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>N. Células/mL</t>
         </is>
       </c>
     </row>
@@ -4290,17 +4298,13 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>7.60000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4320,18 +4324,18 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>10.16000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4346,18 +4350,18 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>29.60000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4372,18 +4376,18 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1600.00000000</t>
+          <t>159.00000000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4398,18 +4402,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Saxitoxina</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.50600000</t>
+          <t>0.03000000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4424,18 +4428,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2.57000000</t>
+          <t>0.50600000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4450,13 +4454,13 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>7.60000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4476,22 +4480,18 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>29.60000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4506,18 +4506,18 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>Incolor</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4532,18 +4532,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>4.90000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4558,18 +4558,18 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0.15000000</t>
+          <t>8.00000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -4644,18 +4644,18 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>9.06000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4670,18 +4670,18 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Microcistinas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>159.00000000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4696,16 +4696,2260 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>8.00000000</t>
+          <t>28.00000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Saxitoxina</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>8.76000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>136.00000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>11.84000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>34.41000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>209.00000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>4.00000000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>27.00000000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>21.16000000</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Microcistinas</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>0.63000000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23.70000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>201163.00000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>0.24000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>0.72600000</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>12.00000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>8.10000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.00000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>7.10000000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>159.00000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2.31000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44355.42708333334</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>60.00000000</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>132.00000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>173.00000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>20.50000000</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.15000000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>14.37000000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Microcistinas</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>3.61000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>10.00000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>8.90000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>3.07000000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>4.54000000</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>0.03000000</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>184.44000000</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>224.00000000</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1263696.00000000</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>24.66000000</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>11.50000000</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.25000000</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Saxitoxina</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>17.00000000</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44411.42013888889</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>25.66000000</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Incolor</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>13.00000000</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>23.70000000</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>5.90000000</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>226.00000000</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>29.00000000</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>3.53000000</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Saxitoxina</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>121.00000000</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>8.15000000</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Número de Células de Cianobactérias</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>124919.00000000</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>N. Células/mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>141.00000000</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.72200000</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Microcistinas</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1.17000000</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>26.20000000</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>12.70000000</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.26000000</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>40.00000000</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BFAR02250</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44490.39930555555</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>8.50000000</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
